--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>850</v>
+        <v>960</v>
       </c>
       <c r="C5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Group A</t>
   </si>
   <si>
-    <t>Matches</t>
+    <t>Matches_A</t>
   </si>
   <si>
     <t>Won</t>
@@ -31,6 +31,24 @@
     <t>Points</t>
   </si>
   <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Group B</t>
+  </si>
+  <si>
+    <t>Matches_B</t>
+  </si>
+  <si>
+    <t>Won.1</t>
+  </si>
+  <si>
+    <t>Lost.1</t>
+  </si>
+  <si>
+    <t>Points.1</t>
+  </si>
+  <si>
     <t>Mumbai_India</t>
   </si>
   <si>
@@ -41,9 +59,6 @@
   </si>
   <si>
     <t>RoyalChallengers_Bangladesh</t>
-  </si>
-  <si>
-    <t>Group B</t>
   </si>
   <si>
     <t>Rajastan_Australia</t>
@@ -413,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +450,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -452,13 +485,28 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -469,13 +517,28 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -486,13 +549,28 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>960</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -503,89 +581,19 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -40,13 +40,13 @@
     <t>Matches_B</t>
   </si>
   <si>
-    <t>Won.1</t>
-  </si>
-  <si>
-    <t>Lost.1</t>
-  </si>
-  <si>
-    <t>Points.1</t>
+    <t>Won_B</t>
+  </si>
+  <si>
+    <t>Lost_B</t>
+  </si>
+  <si>
+    <t>Points_B</t>
   </si>
   <si>
     <t>Mumbai_India</t>
@@ -474,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -521,13 +521,13 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Validation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Group A</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Unnamed: 5</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Group B</t>
@@ -474,28 +474,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -506,31 +509,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,16 +544,19 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -556,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -570,31 +579,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -477,13 +477,13 @@
         <v>3</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -495,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
       <c r="K2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,13 +512,13 @@
         <v>3</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -530,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>0</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,13 +547,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -565,13 +565,13 @@
         <v>3</v>
       </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,13 +582,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -600,13 +600,13 @@
         <v>3</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
       <c r="K5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,16 +474,16 @@
         <v>11</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -492,16 +492,16 @@
         <v>15</v>
       </c>
       <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
       <c r="J2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,13 +509,13 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -527,16 +527,16 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -562,16 +562,16 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -597,16 +597,16 @@
         <v>18</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
       <c r="K5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -31,7 +31,7 @@
     <t>Points</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> |</t>
   </si>
   <si>
     <t>Group B</t>
@@ -474,16 +474,16 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -492,16 +492,16 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,16 +509,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -527,16 +527,16 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,13 +547,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -562,16 +562,16 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -597,16 +597,16 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -512,13 +512,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -530,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -565,13 +565,13 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,13 +582,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -477,13 +477,13 @@
         <v>3</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -492,16 +492,16 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,16 +509,16 @@
         <v>12</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -527,16 +527,16 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,13 +544,13 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -562,16 +562,16 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -597,16 +597,16 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,16 +474,16 @@
         <v>11</v>
       </c>
       <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -492,16 +492,16 @@
         <v>15</v>
       </c>
       <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
         <v>4</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,16 +509,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -527,16 +527,16 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,16 +544,16 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -562,16 +562,16 @@
         <v>17</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
         <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -597,13 +597,13 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>4</v>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -474,16 +474,16 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -492,13 +492,13 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -509,16 +509,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -527,16 +527,16 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,13 +544,13 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -562,16 +562,16 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -597,16 +597,16 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/points_table.xlsx
+++ b/tournament/points_table.xlsx
@@ -492,16 +492,16 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -527,13 +527,13 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -562,16 +562,16 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
